--- a/xls_ex8.xlsx
+++ b/xls_ex8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\NTNU\Tidsrekker\Tidsrekker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillakarlsen/Desktop/Tidsrekker/Tidsrekker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662B38A-D27F-4574-AB6B-AEADE3BAFF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2DE63-52EB-FE43-AC80-0B61AE233605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1607,25 +1607,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
